--- a/data/pca/factorExposure/factorExposure_2009-12-10.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-12-10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.004040402348756593</v>
+        <v>0.0168250568939908</v>
       </c>
       <c r="C2">
-        <v>0.01100346687334793</v>
+        <v>0.00100919672154872</v>
       </c>
       <c r="D2">
-        <v>0.002201684642059191</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.007316744516963922</v>
+      </c>
+      <c r="E2">
+        <v>0.0001329453690797764</v>
+      </c>
+      <c r="F2">
+        <v>0.01128300677402682</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +751,36 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.03143681561409706</v>
+        <v>0.09348900177563048</v>
       </c>
       <c r="C4">
-        <v>0.1172127444926361</v>
+        <v>0.01505993801399004</v>
       </c>
       <c r="D4">
-        <v>-0.0259061635985697</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.08457737001098042</v>
+      </c>
+      <c r="E4">
+        <v>0.02839834380162804</v>
+      </c>
+      <c r="F4">
+        <v>-0.03060719745041519</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +791,236 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.04052882399187756</v>
+        <v>0.157531348921098</v>
       </c>
       <c r="C6">
-        <v>0.1163743644072297</v>
+        <v>0.02521497303342029</v>
       </c>
       <c r="D6">
-        <v>0.03449630226372893</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.02133794303325441</v>
+      </c>
+      <c r="E6">
+        <v>0.0100234119701355</v>
+      </c>
+      <c r="F6">
+        <v>-0.04576727808702682</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.01211647215120617</v>
+        <v>0.06261562593178641</v>
       </c>
       <c r="C7">
-        <v>0.08434455856629422</v>
+        <v>-0.001805745242276945</v>
       </c>
       <c r="D7">
-        <v>0.004057926930208511</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.05344601280153964</v>
+      </c>
+      <c r="E7">
+        <v>0.01008229671992017</v>
+      </c>
+      <c r="F7">
+        <v>-0.04770979647994601</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.0006852080906678672</v>
+        <v>0.05678092497829447</v>
       </c>
       <c r="C8">
-        <v>0.07468121263922725</v>
+        <v>-0.01392471884041496</v>
       </c>
       <c r="D8">
-        <v>0.03299781349000121</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03475917052619183</v>
+      </c>
+      <c r="E8">
+        <v>0.01792114950366816</v>
+      </c>
+      <c r="F8">
+        <v>0.02803282835334162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.0262100064397251</v>
+        <v>0.07101010053132616</v>
       </c>
       <c r="C9">
-        <v>0.0966498345332012</v>
+        <v>0.01069629314614394</v>
       </c>
       <c r="D9">
-        <v>-0.03135640107451024</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.08690717101988014</v>
+      </c>
+      <c r="E9">
+        <v>0.02324577988604776</v>
+      </c>
+      <c r="F9">
+        <v>-0.04740108522860152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.01287344965440695</v>
+        <v>0.09604843739803326</v>
       </c>
       <c r="C10">
-        <v>0.02623454335378285</v>
+        <v>0.02101986998709158</v>
       </c>
       <c r="D10">
-        <v>0.1223624515600885</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.1719501659018109</v>
+      </c>
+      <c r="E10">
+        <v>-0.03636010556155659</v>
+      </c>
+      <c r="F10">
+        <v>0.05442568437069851</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.03108705854677591</v>
+        <v>0.08770456627142274</v>
       </c>
       <c r="C11">
-        <v>0.1010924990035171</v>
+        <v>0.01022770253659263</v>
       </c>
       <c r="D11">
-        <v>-0.03410958798702327</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.115943771272907</v>
+      </c>
+      <c r="E11">
+        <v>0.0456789943006083</v>
+      </c>
+      <c r="F11">
+        <v>-0.02192450928337088</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.02880013126787221</v>
+        <v>0.09205577521635917</v>
       </c>
       <c r="C12">
-        <v>0.1117179370876023</v>
+        <v>0.007413849553318439</v>
       </c>
       <c r="D12">
-        <v>-0.03107997226414162</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.1313788082593528</v>
+      </c>
+      <c r="E12">
+        <v>0.04715373471340662</v>
+      </c>
+      <c r="F12">
+        <v>-0.02642449516972754</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.01009455942133289</v>
+        <v>0.04167491452294284</v>
       </c>
       <c r="C13">
-        <v>0.04169490396051037</v>
+        <v>0.002914065014574243</v>
       </c>
       <c r="D13">
-        <v>-0.02113223605301308</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.05202441018957721</v>
+      </c>
+      <c r="E13">
+        <v>-0.008594310914635405</v>
+      </c>
+      <c r="F13">
+        <v>-0.003272462065961798</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.01628543119657411</v>
+        <v>0.02260497234027681</v>
       </c>
       <c r="C14">
-        <v>0.02220173366812848</v>
+        <v>0.0136562668187979</v>
       </c>
       <c r="D14">
-        <v>0.004022157310447628</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.03325191820701295</v>
+      </c>
+      <c r="E14">
+        <v>0.01726206659908194</v>
+      </c>
+      <c r="F14">
+        <v>-0.01414564598649939</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.01094361025202037</v>
+        <v>0.03283794800009354</v>
       </c>
       <c r="C15">
-        <v>0.02683791797531906</v>
+        <v>0.004688982153642768</v>
       </c>
       <c r="D15">
-        <v>-0.01056112145715835</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.04532562845366614</v>
+      </c>
+      <c r="E15">
+        <v>0.006204480178070606</v>
+      </c>
+      <c r="F15">
+        <v>-0.02270686785156906</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.02064008905873831</v>
+        <v>0.07399204238002972</v>
       </c>
       <c r="C16">
-        <v>0.1066846540500666</v>
+        <v>0.001363142902277252</v>
       </c>
       <c r="D16">
-        <v>-0.01322718801440648</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.1252308014137405</v>
+      </c>
+      <c r="E16">
+        <v>0.0614605102087774</v>
+      </c>
+      <c r="F16">
+        <v>-0.0247514995637233</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,24 +1031,36 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.03172269269632647</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>-0.0034938115451699</v>
       </c>
       <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>0.01971685916520886</v>
+      </c>
+      <c r="E18">
+        <v>-0.007326591261223045</v>
+      </c>
+      <c r="F18">
+        <v>0.003406416675566666</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.01317818001638357</v>
+        <v>0.06107647100253978</v>
       </c>
       <c r="C20">
-        <v>0.06180973783620144</v>
+        <v>1.526334627453423e-05</v>
       </c>
       <c r="D20">
-        <v>0.003642193840075665</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.07727688759500453</v>
+      </c>
+      <c r="E20">
+        <v>0.05540270044082087</v>
+      </c>
+      <c r="F20">
+        <v>-0.0234675131499697</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.01378595345504694</v>
+        <v>0.04022248994276943</v>
       </c>
       <c r="C21">
-        <v>0.02523453868122082</v>
+        <v>0.006241932793883487</v>
       </c>
       <c r="D21">
-        <v>0.0002159514344392151</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.03771448133620477</v>
+      </c>
+      <c r="E21">
+        <v>-0.005275571006397238</v>
+      </c>
+      <c r="F21">
+        <v>0.02366615951992281</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.005784371118951218</v>
+        <v>0.0438030959856887</v>
       </c>
       <c r="C22">
-        <v>0.03109710372766825</v>
+        <v>0.000677507226307661</v>
       </c>
       <c r="D22">
-        <v>0.03822650135802363</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.003792204119441735</v>
+      </c>
+      <c r="E22">
+        <v>0.02988342523966</v>
+      </c>
+      <c r="F22">
+        <v>0.03553372168554297</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.005771407740333342</v>
+        <v>0.0437886938367257</v>
       </c>
       <c r="C23">
-        <v>0.03103337386986513</v>
+        <v>0.0006732058531184135</v>
       </c>
       <c r="D23">
-        <v>0.03830927237301909</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.003796982197097904</v>
+      </c>
+      <c r="E23">
+        <v>0.03008486258063877</v>
+      </c>
+      <c r="F23">
+        <v>0.03549624212725219</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.02031701837104026</v>
+        <v>0.08010573830524648</v>
       </c>
       <c r="C24">
-        <v>0.1069585980196323</v>
+        <v>0.001831280627112459</v>
       </c>
       <c r="D24">
-        <v>-0.02814532065442139</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.120400418823349</v>
+      </c>
+      <c r="E24">
+        <v>0.0487633974543014</v>
+      </c>
+      <c r="F24">
+        <v>-0.02631184440179023</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.02620055346758931</v>
+        <v>0.08505355696880074</v>
       </c>
       <c r="C25">
-        <v>0.1086813790739583</v>
+        <v>0.004107860487898514</v>
       </c>
       <c r="D25">
-        <v>-0.0228447820482381</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.1089864904252283</v>
+      </c>
+      <c r="E25">
+        <v>0.03231335151706496</v>
+      </c>
+      <c r="F25">
+        <v>-0.02688371313040597</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.02520095661094331</v>
+        <v>0.05812097399030223</v>
       </c>
       <c r="C26">
-        <v>0.05005600328288464</v>
+        <v>0.01430339429448915</v>
       </c>
       <c r="D26">
-        <v>0.01698263756668312</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.04008542528088405</v>
+      </c>
+      <c r="E26">
+        <v>0.02811030641792869</v>
+      </c>
+      <c r="F26">
+        <v>0.008929875492974401</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,206 +1231,296 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.008410827978774524</v>
+        <v>0.140622571987878</v>
       </c>
       <c r="C28">
-        <v>0.04201708504702188</v>
+        <v>0.02033752900497962</v>
       </c>
       <c r="D28">
-        <v>0.1927617553147148</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.2611946466947048</v>
+      </c>
+      <c r="E28">
+        <v>-0.06668280789959273</v>
+      </c>
+      <c r="F28">
+        <v>-0.009796364391159345</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.01306381219203834</v>
+        <v>0.02767020255726783</v>
       </c>
       <c r="C29">
-        <v>0.02737627166872213</v>
+        <v>0.008070134217357198</v>
       </c>
       <c r="D29">
-        <v>0.005950642134083356</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.03193496841751167</v>
+      </c>
+      <c r="E29">
+        <v>0.0112066478998863</v>
+      </c>
+      <c r="F29">
+        <v>0.01043210277856938</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.01705356169576023</v>
+        <v>0.06102619319408529</v>
       </c>
       <c r="C30">
-        <v>0.1281592133420768</v>
+        <v>0.003005926299696253</v>
       </c>
       <c r="D30">
-        <v>-0.02027198740475578</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.08941789561960246</v>
+      </c>
+      <c r="E30">
+        <v>0.01936592138402552</v>
+      </c>
+      <c r="F30">
+        <v>-0.08371332184275901</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.02198409188352644</v>
+        <v>0.04982727799475066</v>
       </c>
       <c r="C31">
-        <v>0.03417539350400542</v>
+        <v>0.01504497492763957</v>
       </c>
       <c r="D31">
-        <v>0.0007694390629781428</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.02527268756654546</v>
+      </c>
+      <c r="E31">
+        <v>0.02752638303689019</v>
+      </c>
+      <c r="F31">
+        <v>0.002444644549708151</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.008872602554909252</v>
+        <v>0.05022952202984529</v>
       </c>
       <c r="C32">
-        <v>0.05787526593809515</v>
+        <v>-0.001746087862863736</v>
       </c>
       <c r="D32">
-        <v>0.028127818159906</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.0360202534618726</v>
+      </c>
+      <c r="E32">
+        <v>0.03085094596220703</v>
+      </c>
+      <c r="F32">
+        <v>-0.00305829282466851</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.02313850999280468</v>
+        <v>0.08916936808971046</v>
       </c>
       <c r="C33">
-        <v>0.1064206468053537</v>
+        <v>0.007404014716108004</v>
       </c>
       <c r="D33">
-        <v>-0.02630262733595463</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.09943331904637379</v>
+      </c>
+      <c r="E33">
+        <v>0.043898489966413</v>
+      </c>
+      <c r="F33">
+        <v>-0.03564834295823807</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.02875336188939326</v>
+        <v>0.0681603346332626</v>
       </c>
       <c r="C34">
-        <v>0.09555129400011213</v>
+        <v>0.0103888984802147</v>
       </c>
       <c r="D34">
-        <v>-0.01297795666324423</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.107133080279085</v>
+      </c>
+      <c r="E34">
+        <v>0.03470923002168363</v>
+      </c>
+      <c r="F34">
+        <v>-0.03392281684290332</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.003798013439906585</v>
+        <v>0.02431561872584168</v>
       </c>
       <c r="C35">
-        <v>0.0121480073771214</v>
+        <v>0.002365657557818295</v>
       </c>
       <c r="D35">
-        <v>-0.002541913152583191</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.01176782246424986</v>
+      </c>
+      <c r="E35">
+        <v>0.01176305214989027</v>
+      </c>
+      <c r="F35">
+        <v>-0.0008008908745995591</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.01119643024732427</v>
+        <v>0.0279280675236844</v>
       </c>
       <c r="C36">
-        <v>0.02374674727595201</v>
+        <v>0.00699677962935041</v>
       </c>
       <c r="D36">
-        <v>-0.007459175263453293</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.03927254165880332</v>
+      </c>
+      <c r="E36">
+        <v>0.01630758979997828</v>
+      </c>
+      <c r="F36">
+        <v>-0.01513994285649763</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.0002853150969645401</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>-6.053203991197473e-05</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.0004021244077313448</v>
+      </c>
+      <c r="E37">
+        <v>-0.0004385136872608504</v>
+      </c>
+      <c r="F37">
+        <v>-0.0006801421121011538</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.0006734650726630189</v>
+        <v>0.001560374750460313</v>
       </c>
       <c r="C38">
-        <v>0.004375792904854916</v>
+        <v>0.0002614298780779372</v>
       </c>
       <c r="D38">
-        <v>0.002920941704213152</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.0001783993370885719</v>
+      </c>
+      <c r="E38">
+        <v>0.0005196720118771367</v>
+      </c>
+      <c r="F38">
+        <v>0.0008540291692967766</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.04429696957620284</v>
+        <v>0.1052703309167856</v>
       </c>
       <c r="C39">
-        <v>0.1592579059830955</v>
+        <v>0.01535296727308841</v>
       </c>
       <c r="D39">
-        <v>-0.04891884414195418</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.1540694259049228</v>
+      </c>
+      <c r="E39">
+        <v>0.05898479382911043</v>
+      </c>
+      <c r="F39">
+        <v>-0.02903975184188437</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.01149079633533361</v>
+        <v>0.04100271116477748</v>
       </c>
       <c r="C40">
-        <v>0.01187719807900926</v>
+        <v>0.006650434866889895</v>
       </c>
       <c r="D40">
-        <v>0.009736282303144543</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03284963556798712</v>
+      </c>
+      <c r="E40">
+        <v>0.003582374129148088</v>
+      </c>
+      <c r="F40">
+        <v>0.01520503988464137</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.01162417400659154</v>
+        <v>0.02791751698776328</v>
       </c>
       <c r="C41">
-        <v>0.01805777068119179</v>
+        <v>0.006713123634867286</v>
       </c>
       <c r="D41">
-        <v>0.01521510253088624</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01023591431678451</v>
+      </c>
+      <c r="E41">
+        <v>0.01229244448134615</v>
+      </c>
+      <c r="F41">
+        <v>0.006609784788171659</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.01355988239813332</v>
+        <v>0.04088805732496059</v>
       </c>
       <c r="C43">
-        <v>0.02729597181664127</v>
+        <v>0.006770028977233205</v>
       </c>
       <c r="D43">
-        <v>0.01033924061623342</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.01947816245262316</v>
+      </c>
+      <c r="E43">
+        <v>0.02433131865058798</v>
+      </c>
+      <c r="F43">
+        <v>0.01259978741474083</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.03376866586470411</v>
+        <v>0.08027292200287478</v>
       </c>
       <c r="C44">
-        <v>0.127003693961686</v>
+        <v>0.01971369937230101</v>
       </c>
       <c r="D44">
-        <v>0.001064516424978954</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.09812069374170253</v>
+      </c>
+      <c r="E44">
+        <v>0.06561958650720516</v>
+      </c>
+      <c r="F44">
+        <v>-0.1570309841118928</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,164 +1591,236 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.005612827144604738</v>
+        <v>0.02332724936070498</v>
       </c>
       <c r="C46">
-        <v>0.006445326526556688</v>
+        <v>0.003449134318386209</v>
       </c>
       <c r="D46">
-        <v>0.01943647328251881</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01299990240754261</v>
+      </c>
+      <c r="E46">
+        <v>0.02204557119942137</v>
+      </c>
+      <c r="F46">
+        <v>0.004944612130564778</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.01137754341579138</v>
+        <v>0.05123186656542417</v>
       </c>
       <c r="C47">
-        <v>0.03403661423032352</v>
+        <v>0.003275069030647592</v>
       </c>
       <c r="D47">
-        <v>0.02805444066756338</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01404922619284124</v>
+      </c>
+      <c r="E47">
+        <v>0.02344947763536349</v>
+      </c>
+      <c r="F47">
+        <v>0.03369797143730085</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.01273497236042957</v>
+        <v>0.04997261081087026</v>
       </c>
       <c r="C48">
-        <v>0.04851023297302415</v>
+        <v>0.002179849498284417</v>
       </c>
       <c r="D48">
-        <v>-0.01616786761665745</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.04991805147249805</v>
+      </c>
+      <c r="E48">
+        <v>-0.006236992224662453</v>
+      </c>
+      <c r="F48">
+        <v>-0.009781846907223991</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.04165126290685989</v>
+        <v>0.1998892276929306</v>
       </c>
       <c r="C49">
-        <v>0.2169161300402498</v>
+        <v>0.01850677665038062</v>
       </c>
       <c r="D49">
-        <v>0.06012500356845551</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.007926684625417216</v>
+      </c>
+      <c r="E49">
+        <v>0.03050335740118056</v>
+      </c>
+      <c r="F49">
+        <v>-0.03925094987211247</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.01893191269289323</v>
+        <v>0.05073629873436784</v>
       </c>
       <c r="C50">
-        <v>0.03930034399229686</v>
+        <v>0.01110386946509095</v>
       </c>
       <c r="D50">
-        <v>0.008111813289844543</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.02369264256875375</v>
+      </c>
+      <c r="E50">
+        <v>0.02934716798425607</v>
+      </c>
+      <c r="F50">
+        <v>-0.009061635056460167</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.0003126626583162584</v>
+        <v>0.0005103616047499931</v>
       </c>
       <c r="C51">
-        <v>0.001110950085687055</v>
+        <v>0.0001427536761198676</v>
       </c>
       <c r="D51">
-        <v>0.001125029103821644</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.0001226643775669894</v>
+      </c>
+      <c r="E51">
+        <v>-2.387902084698803e-05</v>
+      </c>
+      <c r="F51">
+        <v>-0.002735783462349488</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.03355084512213455</v>
+        <v>0.1462371253445746</v>
       </c>
       <c r="C52">
-        <v>0.152378851215083</v>
+        <v>0.01532421057435876</v>
       </c>
       <c r="D52">
-        <v>-0.01897050739551792</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>0.04501386350912287</v>
+      </c>
+      <c r="E52">
+        <v>0.0201946572688673</v>
+      </c>
+      <c r="F52">
+        <v>-0.0407115144356262</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.03487559708206351</v>
+        <v>0.1722419849630923</v>
       </c>
       <c r="C53">
-        <v>0.1742903655067559</v>
+        <v>0.01855664336573635</v>
       </c>
       <c r="D53">
-        <v>0.01341622427064813</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.006377055920872695</v>
+      </c>
+      <c r="E53">
+        <v>0.03135605539604212</v>
+      </c>
+      <c r="F53">
+        <v>-0.07206344405188654</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.01636229529370373</v>
+        <v>0.02269907434017988</v>
       </c>
       <c r="C54">
-        <v>0.03824190655756714</v>
+        <v>0.01241425071035317</v>
       </c>
       <c r="D54">
-        <v>0.005977161430879643</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.03345642191759906</v>
+      </c>
+      <c r="E54">
+        <v>0.01817300264985672</v>
+      </c>
+      <c r="F54">
+        <v>0.003113829346841861</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.02652793577010016</v>
+        <v>0.1140075220830767</v>
       </c>
       <c r="C55">
-        <v>0.08907361961108716</v>
+        <v>0.01623438946643528</v>
       </c>
       <c r="D55">
-        <v>0.0007903684016282988</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.009679548180009706</v>
+      </c>
+      <c r="E55">
+        <v>0.02780593877872644</v>
+      </c>
+      <c r="F55">
+        <v>-0.04636212000962712</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.03565548789973724</v>
+        <v>0.1769014366282505</v>
       </c>
       <c r="C56">
-        <v>0.1610165437068959</v>
+        <v>0.01603041905416536</v>
       </c>
       <c r="D56">
-        <v>0.02242999389549424</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.001255990672547248</v>
+      </c>
+      <c r="E56">
+        <v>0.03552084410255078</v>
+      </c>
+      <c r="F56">
+        <v>-0.0503257731256526</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,626 +1831,896 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.0131381412482269</v>
+        <v>0.04600118826929129</v>
       </c>
       <c r="C58">
-        <v>0.04947146366738998</v>
+        <v>0.0003829729946892908</v>
       </c>
       <c r="D58">
-        <v>-0.01285201182530453</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.06780627136938845</v>
+      </c>
+      <c r="E58">
+        <v>0.02758747695100356</v>
+      </c>
+      <c r="F58">
+        <v>0.03589531357514802</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.01763548557020874</v>
+        <v>0.1681796146828621</v>
       </c>
       <c r="C59">
-        <v>0.09919449065280661</v>
+        <v>0.02095917306808017</v>
       </c>
       <c r="D59">
-        <v>0.2011402515424516</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.2178048522577695</v>
+      </c>
+      <c r="E59">
+        <v>-0.04551880103886786</v>
+      </c>
+      <c r="F59">
+        <v>0.03383131564986826</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.03235030238717723</v>
+        <v>0.2312784711376031</v>
       </c>
       <c r="C60">
-        <v>0.2778268179802019</v>
+        <v>-0.003129082964768741</v>
       </c>
       <c r="D60">
-        <v>0.001520504621925505</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.04221704689516125</v>
+      </c>
+      <c r="E60">
+        <v>0.01090861179202561</v>
+      </c>
+      <c r="F60">
+        <v>0.00694153254044554</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.03156087120477987</v>
+        <v>0.0819665972432075</v>
       </c>
       <c r="C61">
-        <v>0.1203640891165676</v>
+        <v>0.01143167217900243</v>
       </c>
       <c r="D61">
-        <v>-0.01663658182720541</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.1160965643306091</v>
+      </c>
+      <c r="E61">
+        <v>0.03819556530473052</v>
+      </c>
+      <c r="F61">
+        <v>-0.01180696436846834</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.0376285895556926</v>
+        <v>0.1705195359035111</v>
       </c>
       <c r="C62">
-        <v>0.163826433388805</v>
+        <v>0.01942426721936359</v>
       </c>
       <c r="D62">
-        <v>0.01735105377754932</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.006599341551596384</v>
+      </c>
+      <c r="E62">
+        <v>0.03462181830078116</v>
+      </c>
+      <c r="F62">
+        <v>-0.03306194890757268</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.01224453072847155</v>
+        <v>0.04568149901042939</v>
       </c>
       <c r="C63">
-        <v>0.05059139619759059</v>
+        <v>0.001759754493283276</v>
       </c>
       <c r="D63">
-        <v>-0.0132622107310599</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.05865132555350286</v>
+      </c>
+      <c r="E63">
+        <v>0.02165983647114201</v>
+      </c>
+      <c r="F63">
+        <v>-0.005974378241847584</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.02545177028102396</v>
+        <v>0.1106109713034951</v>
       </c>
       <c r="C64">
-        <v>0.09490692708149454</v>
+        <v>0.01089999988558047</v>
       </c>
       <c r="D64">
-        <v>0.009168755752944483</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.04289450417855282</v>
+      </c>
+      <c r="E64">
+        <v>0.02400567913410406</v>
+      </c>
+      <c r="F64">
+        <v>-0.025662673119429</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.04162735653308152</v>
+        <v>0.1476066488528499</v>
       </c>
       <c r="C65">
-        <v>0.1088908366680181</v>
+        <v>0.03249084721240132</v>
       </c>
       <c r="D65">
-        <v>0.02521988927031345</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.04046272482750231</v>
+      </c>
+      <c r="E65">
+        <v>0.004018230623096486</v>
+      </c>
+      <c r="F65">
+        <v>-0.03918977506644827</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.04242108939310555</v>
+        <v>0.124816668408963</v>
       </c>
       <c r="C66">
-        <v>0.1871429953212109</v>
+        <v>0.01341959932861776</v>
       </c>
       <c r="D66">
-        <v>-0.04562090518663476</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1426866784091111</v>
+      </c>
+      <c r="E66">
+        <v>0.06648207213120268</v>
+      </c>
+      <c r="F66">
+        <v>-0.0312891128445898</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.01500937508269116</v>
+        <v>0.06081272257402587</v>
       </c>
       <c r="C67">
-        <v>0.07313974763004069</v>
+        <v>0.003056320711861769</v>
       </c>
       <c r="D67">
-        <v>-0.00848907647681631</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.05522685577120305</v>
+      </c>
+      <c r="E67">
+        <v>0.01720629852178132</v>
+      </c>
+      <c r="F67">
+        <v>0.03413415746622039</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.01818617814830685</v>
+        <v>0.1171137226390098</v>
       </c>
       <c r="C68">
-        <v>0.02841253724665042</v>
+        <v>0.03148694682271187</v>
       </c>
       <c r="D68">
-        <v>0.1758752060360207</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.2614347959698939</v>
+      </c>
+      <c r="E68">
+        <v>-0.08633399953509492</v>
+      </c>
+      <c r="F68">
+        <v>-0.004969357619142763</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.006550418936927243</v>
+        <v>0.03983305148533117</v>
       </c>
       <c r="C69">
-        <v>0.03408646669991021</v>
+        <v>0.001313540962318726</v>
       </c>
       <c r="D69">
-        <v>0.008037799559017697</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.007188493280378652</v>
+      </c>
+      <c r="E69">
+        <v>0.02284863507503105</v>
+      </c>
+      <c r="F69">
+        <v>0.0008947811902524073</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>0.000189994480154346</v>
+        <v>0.06585161329374284</v>
       </c>
       <c r="C70">
-        <v>0.03462214766351502</v>
+        <v>-0.02808237938165387</v>
       </c>
       <c r="D70">
-        <v>-0.0003606776488081808</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.02475580295454834</v>
+      </c>
+      <c r="E70">
+        <v>-0.03971834739424415</v>
+      </c>
+      <c r="F70">
+        <v>0.1858484887287748</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.02233738111296023</v>
+        <v>0.1369150829186711</v>
       </c>
       <c r="C71">
-        <v>0.03917711279646827</v>
+        <v>0.03584800020479356</v>
       </c>
       <c r="D71">
-        <v>0.1881618301364863</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.2734467476209103</v>
+      </c>
+      <c r="E71">
+        <v>-0.09587472534063904</v>
+      </c>
+      <c r="F71">
+        <v>-0.01184401301552472</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.03869617705976193</v>
+        <v>0.1420635615114408</v>
       </c>
       <c r="C72">
-        <v>0.1234342832190481</v>
+        <v>0.02583803119831019</v>
       </c>
       <c r="D72">
-        <v>0.03889769797179397</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.001229414440893355</v>
+      </c>
+      <c r="E72">
+        <v>0.03793734843707721</v>
+      </c>
+      <c r="F72">
+        <v>-0.03449148999452548</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.03694003430657906</v>
+        <v>0.2008260642958417</v>
       </c>
       <c r="C73">
-        <v>0.2118088661049944</v>
+        <v>0.01210907526220602</v>
       </c>
       <c r="D73">
-        <v>0.05269589677646797</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.01776405171478615</v>
+      </c>
+      <c r="E73">
+        <v>0.06415648586786857</v>
+      </c>
+      <c r="F73">
+        <v>-0.03866362127505141</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.02264491743203969</v>
+        <v>0.09473297444736457</v>
       </c>
       <c r="C74">
-        <v>0.1106996254987653</v>
+        <v>0.01302489025088431</v>
       </c>
       <c r="D74">
-        <v>0.02863375242068047</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.01728930108307869</v>
+      </c>
+      <c r="E74">
+        <v>0.04374595096914181</v>
+      </c>
+      <c r="F74">
+        <v>-0.05600748092797064</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.04410107118055278</v>
+        <v>0.128265716387966</v>
       </c>
       <c r="C75">
-        <v>0.1360210700215078</v>
+        <v>0.02748881851224439</v>
       </c>
       <c r="D75">
-        <v>0.03176897260813359</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.03051623246238811</v>
+      </c>
+      <c r="E75">
+        <v>0.05816912644168051</v>
+      </c>
+      <c r="F75">
+        <v>-0.01768743528497335</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>-0.0001763609249129351</v>
+        <v>0.0004577443441488658</v>
       </c>
       <c r="C76">
-        <v>0.001504434010658784</v>
+        <v>0.0001420634527312621</v>
       </c>
       <c r="D76">
-        <v>0.001784726041322014</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.0005502801295618648</v>
+      </c>
+      <c r="E76">
+        <v>-2.669230157569062e-05</v>
+      </c>
+      <c r="F76">
+        <v>-0.0005367684559793968</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.0262091796053988</v>
+        <v>0.08630324607864892</v>
       </c>
       <c r="C77">
-        <v>0.0992300068617876</v>
+        <v>0.007907449913773481</v>
       </c>
       <c r="D77">
-        <v>-0.04615533598332181</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.1133138767928036</v>
+      </c>
+      <c r="E77">
+        <v>0.0385024657474881</v>
+      </c>
+      <c r="F77">
+        <v>-0.03357507166980016</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.05612433132540098</v>
+        <v>0.09981187940961374</v>
       </c>
       <c r="C78">
-        <v>0.1390678044469527</v>
+        <v>0.03899469736370922</v>
       </c>
       <c r="D78">
-        <v>0.01465895843723592</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.1165653100729327</v>
+      </c>
+      <c r="E78">
+        <v>0.07353256501269517</v>
+      </c>
+      <c r="F78">
+        <v>-0.04602167426716144</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.03873673365392551</v>
+        <v>0.1646509330031189</v>
       </c>
       <c r="C79">
-        <v>0.1442510475499774</v>
+        <v>0.02211886455323368</v>
       </c>
       <c r="D79">
-        <v>0.02911914322100446</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.01530877023424528</v>
+      </c>
+      <c r="E79">
+        <v>0.04626849710136148</v>
+      </c>
+      <c r="F79">
+        <v>-0.01026668441029953</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.01027506137853942</v>
+        <v>0.08259756934072381</v>
       </c>
       <c r="C80">
-        <v>0.08311282276159294</v>
+        <v>-0.001067686120086331</v>
       </c>
       <c r="D80">
-        <v>0.01104170440276916</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.05652007725264949</v>
+      </c>
+      <c r="E80">
+        <v>0.03655415340102234</v>
+      </c>
+      <c r="F80">
+        <v>0.02376720392301317</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.04592623491223425</v>
+        <v>0.1216997328265826</v>
       </c>
       <c r="C81">
-        <v>0.1366879618355055</v>
+        <v>0.03146464276046802</v>
       </c>
       <c r="D81">
-        <v>0.01798998848262175</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.01612194724803598</v>
+      </c>
+      <c r="E81">
+        <v>0.05774407614820982</v>
+      </c>
+      <c r="F81">
+        <v>-0.01561825275690221</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.04089908851575143</v>
+        <v>0.166347901153938</v>
       </c>
       <c r="C82">
-        <v>0.1674016310025258</v>
+        <v>0.02390412472525889</v>
       </c>
       <c r="D82">
-        <v>0.02318337443168525</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.00397883156382937</v>
+      </c>
+      <c r="E82">
+        <v>0.02797783122516812</v>
+      </c>
+      <c r="F82">
+        <v>-0.07902734755414093</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.0181230000171228</v>
+        <v>0.06013668494990287</v>
       </c>
       <c r="C83">
-        <v>0.07022714555047925</v>
+        <v>0.002699140280700202</v>
       </c>
       <c r="D83">
-        <v>-0.001577423437718957</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.05115207435083398</v>
+      </c>
+      <c r="E83">
+        <v>0.005077163706908676</v>
+      </c>
+      <c r="F83">
+        <v>0.03154038713450358</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.02721413533700935</v>
+        <v>0.05863545704633942</v>
       </c>
       <c r="C84">
-        <v>0.08223087964999569</v>
+        <v>0.01085280758840674</v>
       </c>
       <c r="D84">
-        <v>-0.02677187518677042</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.06425663209604728</v>
+      </c>
+      <c r="E84">
+        <v>0.006690259042366442</v>
+      </c>
+      <c r="F84">
+        <v>-0.003909661816556952</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.03997342437497672</v>
+        <v>0.1364663980818332</v>
       </c>
       <c r="C85">
-        <v>0.1191103508885916</v>
+        <v>0.02736861720633036</v>
       </c>
       <c r="D85">
-        <v>0.01540899419169743</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.01106148085150981</v>
+      </c>
+      <c r="E85">
+        <v>0.03834614462362974</v>
+      </c>
+      <c r="F85">
+        <v>-0.04424029419996433</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.01149774971761839</v>
+        <v>0.09361644633076749</v>
       </c>
       <c r="C86">
-        <v>0.08172446906354353</v>
+        <v>-0.006641492493345453</v>
       </c>
       <c r="D86">
-        <v>0.1810706478880061</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.04267124275325344</v>
+      </c>
+      <c r="E86">
+        <v>0.2139535110936433</v>
+      </c>
+      <c r="F86">
+        <v>0.9080202154109912</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.0402083549433155</v>
+        <v>0.09689134671548505</v>
       </c>
       <c r="C87">
-        <v>0.1063828815363868</v>
+        <v>0.01933954632307134</v>
       </c>
       <c r="D87">
-        <v>-0.05682946741371361</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.09658523345454666</v>
+      </c>
+      <c r="E87">
+        <v>-0.05065627490917404</v>
+      </c>
+      <c r="F87">
+        <v>-0.05364157982832365</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.01421422710377314</v>
+        <v>0.06065838154534075</v>
       </c>
       <c r="C88">
-        <v>0.05940685284136519</v>
+        <v>0.002027024868586405</v>
       </c>
       <c r="D88">
-        <v>-0.003057930250707635</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.04957366167571131</v>
+      </c>
+      <c r="E88">
+        <v>0.02442210255846439</v>
+      </c>
+      <c r="F88">
+        <v>-0.01193316579403856</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.003666979877241441</v>
+        <v>0.1338956984947449</v>
       </c>
       <c r="C89">
-        <v>0.05373674211492552</v>
+        <v>0.01320784836897603</v>
       </c>
       <c r="D89">
-        <v>0.2203990154585857</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.2505598656472408</v>
+      </c>
+      <c r="E89">
+        <v>-0.09020686283925707</v>
+      </c>
+      <c r="F89">
+        <v>0.008236152948881036</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.02103932488733984</v>
+        <v>0.1507757246207007</v>
       </c>
       <c r="C90">
-        <v>0.04240739352435569</v>
+        <v>0.03206261549309945</v>
       </c>
       <c r="D90">
-        <v>0.1966767118692079</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.2692965545325195</v>
+      </c>
+      <c r="E90">
+        <v>-0.1116613031581607</v>
+      </c>
+      <c r="F90">
+        <v>0.001569150599572478</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.0255568217435436</v>
+        <v>0.1204805957856804</v>
       </c>
       <c r="C91">
-        <v>0.1018251673088799</v>
+        <v>0.01861884267909816</v>
       </c>
       <c r="D91">
-        <v>0.02155712917136935</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.01277917759465505</v>
+      </c>
+      <c r="E91">
+        <v>0.056191195873047</v>
+      </c>
+      <c r="F91">
+        <v>0.003394091691612229</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.006856281310493114</v>
+        <v>0.147719869594051</v>
       </c>
       <c r="C92">
-        <v>0.05696368339099739</v>
+        <v>0.02360869132533499</v>
       </c>
       <c r="D92">
-        <v>0.2115692428716469</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.2912935500601744</v>
+      </c>
+      <c r="E92">
+        <v>-0.1001642222678947</v>
+      </c>
+      <c r="F92">
+        <v>0.0131000015784729</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.01903992489485687</v>
+        <v>0.1522450869284803</v>
       </c>
       <c r="C93">
-        <v>0.05630856109809958</v>
+        <v>0.0278604945719484</v>
       </c>
       <c r="D93">
-        <v>0.2219262993378442</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.2684659218664044</v>
+      </c>
+      <c r="E93">
+        <v>-0.07649047859035799</v>
+      </c>
+      <c r="F93">
+        <v>-0.00225268969963086</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.04288743137396699</v>
+        <v>0.1306685056247574</v>
       </c>
       <c r="C94">
-        <v>0.1498140967211809</v>
+        <v>0.02434171903647316</v>
       </c>
       <c r="D94">
-        <v>0.01499638824852497</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.04295955893920053</v>
+      </c>
+      <c r="E94">
+        <v>0.05767368015655261</v>
+      </c>
+      <c r="F94">
+        <v>-0.03508497706869076</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.02727596738119852</v>
+        <v>0.1273615884648807</v>
       </c>
       <c r="C95">
-        <v>0.139191436208039</v>
+        <v>0.003443462180618839</v>
       </c>
       <c r="D95">
-        <v>-0.02317337071210213</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.09176969055171229</v>
+      </c>
+      <c r="E95">
+        <v>0.0466068766975102</v>
+      </c>
+      <c r="F95">
+        <v>0.006517414192679964</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>0.9718849068683796</v>
+        <v>0.1045382370383098</v>
       </c>
       <c r="C96">
-        <v>0.217080210092253</v>
+        <v>-0.9876838319672133</v>
       </c>
       <c r="D96">
-        <v>0.02818981574691818</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>-0.04837773471792536</v>
+      </c>
+      <c r="E96">
+        <v>0.05537845098504035</v>
+      </c>
+      <c r="F96">
+        <v>-0.04239401410886211</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.005192134050029033</v>
+        <v>0.1931580270164582</v>
       </c>
       <c r="C97">
-        <v>0.1519218252491908</v>
+        <v>-0.00768128370347553</v>
       </c>
       <c r="D97">
-        <v>0.05370240482421446</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.01756949424432682</v>
+      </c>
+      <c r="E97">
+        <v>0.01830563659390893</v>
+      </c>
+      <c r="F97">
+        <v>0.09173135874389535</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.02974702185054349</v>
+        <v>0.2041492786161208</v>
       </c>
       <c r="C98">
-        <v>0.2000562717695996</v>
+        <v>0.006746277189733569</v>
       </c>
       <c r="D98">
-        <v>0.01852376660616855</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.01411887630288437</v>
+      </c>
+      <c r="E98">
+        <v>-0.08360498450447149</v>
+      </c>
+      <c r="F98">
+        <v>0.0936706764341884</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.005104315276160551</v>
+        <v>0.05576755795174738</v>
       </c>
       <c r="C99">
-        <v>0.06320019170689363</v>
+        <v>-0.00499695009063795</v>
       </c>
       <c r="D99">
-        <v>0.01387007513390984</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.03977612320651951</v>
+      </c>
+      <c r="E99">
+        <v>0.02310127319908398</v>
+      </c>
+      <c r="F99">
+        <v>-0.001623799442211837</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.004891239152088478</v>
+        <v>0.1249639066561787</v>
       </c>
       <c r="C100">
-        <v>0.1812320578643949</v>
+        <v>-0.05498680250580757</v>
       </c>
       <c r="D100">
-        <v>-0.7619897053419179</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>0.3427854252976874</v>
+      </c>
+      <c r="E100">
+        <v>-0.8897531828532257</v>
+      </c>
+      <c r="F100">
+        <v>0.1420880297087757</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.0130762034665945</v>
+        <v>0.02760134813403674</v>
       </c>
       <c r="C101">
-        <v>0.0274003570973074</v>
+        <v>0.008082440529367779</v>
       </c>
       <c r="D101">
-        <v>0.005902526850496423</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.03159687371247497</v>
+      </c>
+      <c r="E101">
+        <v>0.01060610305391586</v>
+      </c>
+      <c r="F101">
+        <v>0.01172541620539153</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
